--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002910</t>
-  </si>
-  <si>
-    <t>002281</t>
-  </si>
-  <si>
-    <t>易方达供给改革灵活配置混合</t>
-  </si>
-  <si>
-    <t>建信裕利灵活配置混合</t>
-  </si>
-  <si>
-    <t>43.48</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>93.91</t>
-  </si>
-  <si>
-    <t>87.31</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>1.9870</t>
-  </si>
-  <si>
-    <t>0.0302</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,367 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -942,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,17 +954,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -973,14 +994,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -989,13 +1032,269 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1225,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,17 +1237,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1256,14 +1277,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1272,14 +1315,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.71</v>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1288,13 +1353,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9870</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.02</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.36</t>
+          <t>63.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2479</t>
+          <t>3.1120</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007586</t>
+          <t>006642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰保兴多策略三个月定期开放股票</t>
+          <t>华泰保兴吉年利定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.4951</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -713,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003601</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合A</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>74.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0982</t>
+          <t>0.2312</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009124</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰保兴科荣混合A</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>81.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.1761</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002378</t>
+          <t>005904</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信弘利灵活配置混合</t>
+          <t>华泰保兴成长优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -827,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>007586</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>华泰保兴多策略三个月定期开放股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0746</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -865,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003602</t>
+          <t>003434</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合C</t>
+          <t>博时鑫泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>64.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.1154</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -903,33 +871,377 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009125</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰保兴科荣混合C</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1226,7 +1538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,26 +1599,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.77</t>
+          <t>38.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1120</t>
+          <t>2.2479</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1315,36 +1627,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006642</t>
+          <t>007586</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰保兴吉年利定期开放混合</t>
+          <t>华泰保兴多策略三个月定期开放股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4951</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1353,32 +1665,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>003601</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>申万菱信安鑫精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.25</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2312</t>
+          <t>0.0982</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1391,36 +1703,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>009124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>华泰保兴科荣混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.28</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.0858</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1429,36 +1741,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>002378</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>建信弘利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1467,32 +1779,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007586</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰保兴多策略三个月定期开放股票</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>89.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1378</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1505,36 +1817,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003434</t>
+          <t>003602</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时鑫泽灵活配置混合A</t>
+          <t>申万菱信安鑫精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.69</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1154</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1543,377 +1855,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>009125</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>华泰保兴科荣混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011284</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信保诚龙腾精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>69.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006214</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>平安中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>64.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010329</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时荣华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>74.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005905</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1928,96 +1896,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.68</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.02</v>
       </c>
     </row>
@@ -549,6 +566,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1250,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1532,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1890,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601702-华峰铝业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.96</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.02</v>
       </c>
     </row>
@@ -566,6 +583,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>017194</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1835,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,7 +3708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2819,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,7 +4348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
